--- a/biology/Médecine/Antonín_Holý/Antonín_Holý.xlsx
+++ b/biology/Médecine/Antonín_Holý/Antonín_Holý.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anton%C3%ADn_Hol%C3%BD</t>
+          <t>Antonín_Holý</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonín Holý (né le 1er septembre 1936 à Prague et mort le 16 juillet 2012 dans la même ville) est un chimiste tchèque qui a accompli des avancées importantes dans le développement des médicaments antirétroviraux dans la lutte contre le sida et l'hépatite B (Adefovir, Cidofovir, Ténofovir). Il est l’auteur de plus de 400 articles et le propriétaire de soixante brevets.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anton%C3%ADn_Hol%C3%BD</t>
+          <t>Antonín_Holý</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Carrière scientifique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonín Holý a étudié la chimie organique de 1954 à 1959 au sein de la faculté des sciences de l'université Charles de Prague. À partir de 1960, il étudie au sein de l'Institut de chimie organique et de biochimie (ICOB) de l'Académie tchécoslovaque des sciences et a travaillé au sein de cette même institution, en tant que chercheur depuis 1963. De 1994 à 2002, il préside l'ICOB.
 À partir de 1976, il collabore avec Erik De Clercq de l'université catholique de Louvain au développement d'antirétroviraux. En 2006, la société américaine de biopharmacie, Gilead Sciences et l’ICOB de l’Académie tchèque des sciences sont entrés en partenariat, Gilead Science prométant une donation de 1,1 million de dollars sur cinq ans pour financer l’ICOB.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anton%C3%ADn_Hol%C3%BD</t>
+          <t>Antonín_Holý</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1984 : Prix d’État pour la chimie (Acyklická analoga nukleotidů a nukleotidů)
 1998 : Médaille Hanuš de la Société tchèque de chimie
